--- a/Excel/BattleUnit.xlsx
+++ b/Excel/BattleUnit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,82 +44,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Micro Dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxAnger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatarName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Villager_B_Boy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Micro Dragon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
     <t>micro_dragon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxAnger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>avatarName</t>
+    <t>Villager_B_Boy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +499,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -516,28 +520,28 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -554,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -586,36 +590,36 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
@@ -638,16 +642,16 @@
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>

--- a/Excel/BattleUnit.xlsx
+++ b/Excel/BattleUnit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,22 @@
   </si>
   <si>
     <t>Villager_B_Boy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆击概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critPow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆击量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,23 +512,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -535,16 +552,22 @@
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,8 +598,14 @@
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -599,16 +628,22 @@
         <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -628,19 +663,25 @@
         <v>100</v>
       </c>
       <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="1">
         <v>100</v>
       </c>
-      <c r="H4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I4" s="1">
-        <v>100</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -660,15 +701,21 @@
         <v>100</v>
       </c>
       <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="1">
         <v>100</v>
       </c>
-      <c r="H5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="1">
-        <v>100</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>60</v>
       </c>
     </row>

--- a/Excel/BattleUnit.xlsx
+++ b/Excel/BattleUnit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>crit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micro_Dragon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -645,16 +657,16 @@
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
@@ -683,16 +695,16 @@
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
@@ -716,6 +728,82 @@
         <v>100</v>
       </c>
       <c r="L5" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="1">
+        <v>100</v>
+      </c>
+      <c r="L6" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>100</v>
+      </c>
+      <c r="L7" s="1">
         <v>60</v>
       </c>
     </row>

--- a/Excel/BattleUnit.xlsx
+++ b/Excel/BattleUnit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,10 @@
   </si>
   <si>
     <t>Micro_Dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micro_Dragon_Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,15 +528,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.875" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="8.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
@@ -733,13 +737,13 @@
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -760,10 +764,10 @@
         <v>1.5</v>
       </c>
       <c r="J6" s="1">
-        <v>1000</v>
+        <v>999999999</v>
       </c>
       <c r="K6" s="1">
-        <v>100</v>
+        <v>999999999</v>
       </c>
       <c r="L6" s="1">
         <v>60</v>
@@ -771,13 +775,13 @@
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -804,6 +808,44 @@
         <v>100</v>
       </c>
       <c r="L7" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>100</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="1">
+        <v>100</v>
+      </c>
+      <c r="L8" s="1">
         <v>60</v>
       </c>
     </row>

--- a/Excel/BattleUnit.xlsx
+++ b/Excel/BattleUnit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="123">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,9 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Villager</t>
-  </si>
-  <si>
     <t>atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,18 +112,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>micro_dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Villager_B_Boy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>micro_dragon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Villager_B_Boy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>爆击概率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,8 +148,276 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Micro_Dragon_Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>英雄1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄2</t>
+  </si>
+  <si>
+    <t>英雄3</t>
+  </si>
+  <si>
+    <t>英雄4</t>
+  </si>
+  <si>
+    <t>英雄5</t>
+  </si>
+  <si>
+    <t>英雄6</t>
+  </si>
+  <si>
+    <t>英雄7</t>
+  </si>
+  <si>
+    <t>英雄8</t>
+  </si>
+  <si>
+    <t>英雄9</t>
+  </si>
+  <si>
+    <t>英雄10</t>
+  </si>
+  <si>
+    <t>英雄11</t>
+  </si>
+  <si>
+    <t>英雄12</t>
+  </si>
+  <si>
+    <t>英雄13</t>
+  </si>
+  <si>
+    <t>英雄14</t>
+  </si>
+  <si>
+    <t>英雄15</t>
+  </si>
+  <si>
+    <t>英雄16</t>
+  </si>
+  <si>
+    <t>英雄17</t>
+  </si>
+  <si>
+    <t>英雄18</t>
+  </si>
+  <si>
+    <t>英雄19</t>
+  </si>
+  <si>
+    <t>英雄20</t>
+  </si>
+  <si>
+    <t>英雄21</t>
+  </si>
+  <si>
+    <t>英雄22</t>
+  </si>
+  <si>
+    <t>英雄23</t>
+  </si>
+  <si>
+    <t>英雄24</t>
+  </si>
+  <si>
+    <t>英雄25</t>
+  </si>
+  <si>
+    <t>英雄26</t>
+  </si>
+  <si>
+    <t>英雄27</t>
+  </si>
+  <si>
+    <t>英雄28</t>
+  </si>
+  <si>
+    <t>英雄29</t>
+  </si>
+  <si>
+    <t>英雄30</t>
+  </si>
+  <si>
+    <t>英雄31</t>
+  </si>
+  <si>
+    <t>英雄32</t>
+  </si>
+  <si>
+    <t>英雄33</t>
+  </si>
+  <si>
+    <t>英雄34</t>
+  </si>
+  <si>
+    <t>英雄35</t>
+  </si>
+  <si>
+    <t>英雄36</t>
+  </si>
+  <si>
+    <t>英雄37</t>
+  </si>
+  <si>
+    <t>英雄38</t>
+  </si>
+  <si>
+    <t>英雄39</t>
+  </si>
+  <si>
+    <t>英雄40</t>
+  </si>
+  <si>
+    <t>英雄41</t>
+  </si>
+  <si>
+    <t>英雄42</t>
+  </si>
+  <si>
+    <t>英雄43</t>
+  </si>
+  <si>
+    <t>英雄44</t>
+  </si>
+  <si>
+    <t>英雄45</t>
+  </si>
+  <si>
+    <t>hero1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero2</t>
+  </si>
+  <si>
+    <t>hero3</t>
+  </si>
+  <si>
+    <t>hero4</t>
+  </si>
+  <si>
+    <t>hero5</t>
+  </si>
+  <si>
+    <t>hero6</t>
+  </si>
+  <si>
+    <t>hero7</t>
+  </si>
+  <si>
+    <t>hero8</t>
+  </si>
+  <si>
+    <t>hero9</t>
+  </si>
+  <si>
+    <t>hero10</t>
+  </si>
+  <si>
+    <t>hero11</t>
+  </si>
+  <si>
+    <t>hero12</t>
+  </si>
+  <si>
+    <t>hero13</t>
+  </si>
+  <si>
+    <t>hero14</t>
+  </si>
+  <si>
+    <t>hero15</t>
+  </si>
+  <si>
+    <t>hero16</t>
+  </si>
+  <si>
+    <t>hero17</t>
+  </si>
+  <si>
+    <t>hero18</t>
+  </si>
+  <si>
+    <t>hero19</t>
+  </si>
+  <si>
+    <t>hero20</t>
+  </si>
+  <si>
+    <t>hero21</t>
+  </si>
+  <si>
+    <t>hero22</t>
+  </si>
+  <si>
+    <t>hero23</t>
+  </si>
+  <si>
+    <t>hero24</t>
+  </si>
+  <si>
+    <t>hero25</t>
+  </si>
+  <si>
+    <t>hero26</t>
+  </si>
+  <si>
+    <t>hero27</t>
+  </si>
+  <si>
+    <t>hero28</t>
+  </si>
+  <si>
+    <t>hero29</t>
+  </si>
+  <si>
+    <t>hero30</t>
+  </si>
+  <si>
+    <t>hero31</t>
+  </si>
+  <si>
+    <t>hero32</t>
+  </si>
+  <si>
+    <t>hero33</t>
+  </si>
+  <si>
+    <t>hero34</t>
+  </si>
+  <si>
+    <t>hero35</t>
+  </si>
+  <si>
+    <t>hero36</t>
+  </si>
+  <si>
+    <t>hero37</t>
+  </si>
+  <si>
+    <t>hero38</t>
+  </si>
+  <si>
+    <t>hero39</t>
+  </si>
+  <si>
+    <t>hero40</t>
+  </si>
+  <si>
+    <t>hero41</t>
+  </si>
+  <si>
+    <t>hero42</t>
+  </si>
+  <si>
+    <t>hero43</t>
+  </si>
+  <si>
+    <t>hero44</t>
+  </si>
+  <si>
+    <t>hero45</t>
   </si>
 </sst>
 </file>
@@ -528,16 +789,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="8.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.875" bestFit="1" customWidth="1"/>
@@ -553,34 +815,34 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -597,28 +859,28 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -635,42 +897,42 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
@@ -699,16 +961,16 @@
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
@@ -737,16 +999,16 @@
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
@@ -764,10 +1026,10 @@
         <v>1.5</v>
       </c>
       <c r="J6" s="1">
-        <v>999999999</v>
+        <v>1000</v>
       </c>
       <c r="K6" s="1">
-        <v>999999999</v>
+        <v>100</v>
       </c>
       <c r="L6" s="1">
         <v>60</v>
@@ -775,13 +1037,13 @@
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -813,13 +1075,13 @@
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
@@ -846,6 +1108,1640 @@
         <v>100</v>
       </c>
       <c r="L8" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <v>100</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="1">
+        <v>100</v>
+      </c>
+      <c r="L9" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <v>100</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="1">
+        <v>100</v>
+      </c>
+      <c r="L10" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>100</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K11" s="1">
+        <v>100</v>
+      </c>
+      <c r="L11" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <v>100</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="1">
+        <v>100</v>
+      </c>
+      <c r="L12" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="1">
+        <v>100</v>
+      </c>
+      <c r="L13" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="1">
+        <v>100</v>
+      </c>
+      <c r="L14" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>100</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K15" s="1">
+        <v>100</v>
+      </c>
+      <c r="L15" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <v>100</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K16" s="1">
+        <v>100</v>
+      </c>
+      <c r="L16" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>100</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="1">
+        <v>100</v>
+      </c>
+      <c r="L17" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
+        <v>100</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K18" s="1">
+        <v>100</v>
+      </c>
+      <c r="L18" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1">
+        <v>100</v>
+      </c>
+      <c r="G19" s="1">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="1">
+        <v>100</v>
+      </c>
+      <c r="L19" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1">
+        <v>100</v>
+      </c>
+      <c r="G20" s="1">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="1">
+        <v>100</v>
+      </c>
+      <c r="L20" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>100</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K21" s="1">
+        <v>100</v>
+      </c>
+      <c r="L21" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>100</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K22" s="1">
+        <v>100</v>
+      </c>
+      <c r="L22" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1">
+        <v>100</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K23" s="1">
+        <v>100</v>
+      </c>
+      <c r="L23" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1">
+        <v>100</v>
+      </c>
+      <c r="G24" s="1">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K24" s="1">
+        <v>100</v>
+      </c>
+      <c r="L24" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1">
+        <v>100</v>
+      </c>
+      <c r="G25" s="1">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="1">
+        <v>100</v>
+      </c>
+      <c r="L25" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1">
+        <v>100</v>
+      </c>
+      <c r="G26" s="1">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K26" s="1">
+        <v>100</v>
+      </c>
+      <c r="L26" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1">
+        <v>10</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K27" s="1">
+        <v>100</v>
+      </c>
+      <c r="L27" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1">
+        <v>100</v>
+      </c>
+      <c r="G28" s="1">
+        <v>10</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K28" s="1">
+        <v>100</v>
+      </c>
+      <c r="L28" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1">
+        <v>100</v>
+      </c>
+      <c r="G29" s="1">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K29" s="1">
+        <v>100</v>
+      </c>
+      <c r="L29" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="1">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1">
+        <v>100</v>
+      </c>
+      <c r="G30" s="1">
+        <v>10</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K30" s="1">
+        <v>100</v>
+      </c>
+      <c r="L30" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1">
+        <v>100</v>
+      </c>
+      <c r="G31" s="1">
+        <v>10</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K31" s="1">
+        <v>100</v>
+      </c>
+      <c r="L31" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1">
+        <v>100</v>
+      </c>
+      <c r="G32" s="1">
+        <v>10</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K32" s="1">
+        <v>100</v>
+      </c>
+      <c r="L32" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1">
+        <v>100</v>
+      </c>
+      <c r="G33" s="1">
+        <v>10</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K33" s="1">
+        <v>100</v>
+      </c>
+      <c r="L33" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1">
+        <v>100</v>
+      </c>
+      <c r="G34" s="1">
+        <v>10</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K34" s="1">
+        <v>100</v>
+      </c>
+      <c r="L34" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1">
+        <v>100</v>
+      </c>
+      <c r="G35" s="1">
+        <v>10</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K35" s="1">
+        <v>100</v>
+      </c>
+      <c r="L35" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1">
+        <v>100</v>
+      </c>
+      <c r="G36" s="1">
+        <v>10</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K36" s="1">
+        <v>100</v>
+      </c>
+      <c r="L36" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1">
+        <v>100</v>
+      </c>
+      <c r="G37" s="1">
+        <v>10</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K37" s="1">
+        <v>100</v>
+      </c>
+      <c r="L37" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1">
+        <v>100</v>
+      </c>
+      <c r="G38" s="1">
+        <v>10</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K38" s="1">
+        <v>100</v>
+      </c>
+      <c r="L38" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1">
+        <v>100</v>
+      </c>
+      <c r="G39" s="1">
+        <v>10</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K39" s="1">
+        <v>100</v>
+      </c>
+      <c r="L39" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1">
+        <v>100</v>
+      </c>
+      <c r="G40" s="1">
+        <v>10</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K40" s="1">
+        <v>100</v>
+      </c>
+      <c r="L40" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1">
+        <v>100</v>
+      </c>
+      <c r="G41" s="1">
+        <v>10</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K41" s="1">
+        <v>100</v>
+      </c>
+      <c r="L41" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="1">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1">
+        <v>100</v>
+      </c>
+      <c r="G42" s="1">
+        <v>10</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K42" s="1">
+        <v>100</v>
+      </c>
+      <c r="L42" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1">
+        <v>100</v>
+      </c>
+      <c r="G43" s="1">
+        <v>10</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K43" s="1">
+        <v>100</v>
+      </c>
+      <c r="L43" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1">
+        <v>100</v>
+      </c>
+      <c r="G44" s="1">
+        <v>10</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K44" s="1">
+        <v>100</v>
+      </c>
+      <c r="L44" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1">
+        <v>100</v>
+      </c>
+      <c r="G45" s="1">
+        <v>10</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K45" s="1">
+        <v>100</v>
+      </c>
+      <c r="L45" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="1">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1">
+        <v>100</v>
+      </c>
+      <c r="G46" s="1">
+        <v>10</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K46" s="1">
+        <v>100</v>
+      </c>
+      <c r="L46" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1">
+        <v>100</v>
+      </c>
+      <c r="G47" s="1">
+        <v>10</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K47" s="1">
+        <v>100</v>
+      </c>
+      <c r="L47" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="1">
+        <v>10</v>
+      </c>
+      <c r="F48" s="1">
+        <v>100</v>
+      </c>
+      <c r="G48" s="1">
+        <v>10</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K48" s="1">
+        <v>100</v>
+      </c>
+      <c r="L48" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="1">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1">
+        <v>100</v>
+      </c>
+      <c r="G49" s="1">
+        <v>10</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K49" s="1">
+        <v>100</v>
+      </c>
+      <c r="L49" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="1">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1">
+        <v>100</v>
+      </c>
+      <c r="G50" s="1">
+        <v>10</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K50" s="1">
+        <v>100</v>
+      </c>
+      <c r="L50" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="1">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1">
+        <v>100</v>
+      </c>
+      <c r="G51" s="1">
+        <v>10</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K51" s="1">
+        <v>100</v>
+      </c>
+      <c r="L51" s="1">
         <v>60</v>
       </c>
     </row>

--- a/Excel/BattleUnit.xlsx
+++ b/Excel/BattleUnit.xlsx
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1166,7 +1166,7 @@
         <v>0.3</v>
       </c>
       <c r="O4" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P4" s="2">
         <v>1000</v>
@@ -1234,7 +1234,7 @@
         <v>0.3</v>
       </c>
       <c r="O5" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P5" s="2">
         <v>1000</v>
@@ -1302,7 +1302,7 @@
         <v>0.3</v>
       </c>
       <c r="O6" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P6" s="2">
         <v>1000</v>
@@ -1370,7 +1370,7 @@
         <v>0.3</v>
       </c>
       <c r="O7" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P7" s="2">
         <v>1000</v>
@@ -1438,7 +1438,7 @@
         <v>0.3</v>
       </c>
       <c r="O8" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P8" s="2">
         <v>1000</v>
@@ -1506,7 +1506,7 @@
         <v>0.3</v>
       </c>
       <c r="O9" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P9" s="2">
         <v>1000</v>
@@ -1574,7 +1574,7 @@
         <v>0.3</v>
       </c>
       <c r="O10" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P10" s="2">
         <v>1000</v>
@@ -1642,7 +1642,7 @@
         <v>0.3</v>
       </c>
       <c r="O11" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P11" s="2">
         <v>1000</v>
@@ -1710,7 +1710,7 @@
         <v>0.3</v>
       </c>
       <c r="O12" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P12" s="2">
         <v>1000</v>
@@ -1778,7 +1778,7 @@
         <v>0.3</v>
       </c>
       <c r="O13" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P13" s="2">
         <v>1000</v>
@@ -1846,7 +1846,7 @@
         <v>0.3</v>
       </c>
       <c r="O14" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P14" s="2">
         <v>1000</v>
@@ -1914,7 +1914,7 @@
         <v>0.3</v>
       </c>
       <c r="O15" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P15" s="2">
         <v>1000</v>
@@ -1982,7 +1982,7 @@
         <v>0.3</v>
       </c>
       <c r="O16" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P16" s="2">
         <v>1000</v>
@@ -2050,7 +2050,7 @@
         <v>0.3</v>
       </c>
       <c r="O17" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P17" s="2">
         <v>1000</v>
@@ -2118,7 +2118,7 @@
         <v>0.3</v>
       </c>
       <c r="O18" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P18" s="2">
         <v>1000</v>
@@ -2186,7 +2186,7 @@
         <v>0.3</v>
       </c>
       <c r="O19" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P19" s="2">
         <v>1000</v>
@@ -2254,7 +2254,7 @@
         <v>0.3</v>
       </c>
       <c r="O20" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P20" s="2">
         <v>1000</v>
@@ -2322,7 +2322,7 @@
         <v>0.3</v>
       </c>
       <c r="O21" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P21" s="2">
         <v>1000</v>
@@ -2390,7 +2390,7 @@
         <v>0.3</v>
       </c>
       <c r="O22" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P22" s="2">
         <v>1000</v>
@@ -2458,7 +2458,7 @@
         <v>0.3</v>
       </c>
       <c r="O23" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P23" s="2">
         <v>1000</v>
@@ -2526,7 +2526,7 @@
         <v>0.3</v>
       </c>
       <c r="O24" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P24" s="2">
         <v>1000</v>
@@ -2594,7 +2594,7 @@
         <v>0.3</v>
       </c>
       <c r="O25" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P25" s="2">
         <v>1000</v>
@@ -2662,7 +2662,7 @@
         <v>0.3</v>
       </c>
       <c r="O26" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P26" s="2">
         <v>1000</v>
@@ -2730,7 +2730,7 @@
         <v>0.3</v>
       </c>
       <c r="O27" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P27" s="2">
         <v>1000</v>
@@ -2798,7 +2798,7 @@
         <v>0.3</v>
       </c>
       <c r="O28" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P28" s="2">
         <v>1000</v>
@@ -2866,7 +2866,7 @@
         <v>0.3</v>
       </c>
       <c r="O29" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P29" s="2">
         <v>1000</v>
@@ -2934,7 +2934,7 @@
         <v>0.3</v>
       </c>
       <c r="O30" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P30" s="2">
         <v>1000</v>
@@ -3002,7 +3002,7 @@
         <v>0.3</v>
       </c>
       <c r="O31" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P31" s="2">
         <v>1000</v>
@@ -3070,7 +3070,7 @@
         <v>0.3</v>
       </c>
       <c r="O32" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P32" s="2">
         <v>1000</v>
@@ -3138,7 +3138,7 @@
         <v>0.3</v>
       </c>
       <c r="O33" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P33" s="2">
         <v>1000</v>
@@ -3206,7 +3206,7 @@
         <v>0.3</v>
       </c>
       <c r="O34" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P34" s="2">
         <v>1000</v>
@@ -3274,7 +3274,7 @@
         <v>0.3</v>
       </c>
       <c r="O35" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P35" s="2">
         <v>1000</v>
@@ -3342,7 +3342,7 @@
         <v>0.3</v>
       </c>
       <c r="O36" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P36" s="2">
         <v>1000</v>
@@ -3410,7 +3410,7 @@
         <v>0.3</v>
       </c>
       <c r="O37" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P37" s="2">
         <v>1000</v>
@@ -3478,7 +3478,7 @@
         <v>0.3</v>
       </c>
       <c r="O38" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P38" s="2">
         <v>1000</v>
@@ -3546,7 +3546,7 @@
         <v>0.3</v>
       </c>
       <c r="O39" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P39" s="2">
         <v>1000</v>
@@ -3614,7 +3614,7 @@
         <v>0.3</v>
       </c>
       <c r="O40" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P40" s="2">
         <v>1000</v>
@@ -3682,7 +3682,7 @@
         <v>0.3</v>
       </c>
       <c r="O41" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P41" s="2">
         <v>1000</v>
@@ -3750,7 +3750,7 @@
         <v>0.3</v>
       </c>
       <c r="O42" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P42" s="2">
         <v>1000</v>
@@ -3818,7 +3818,7 @@
         <v>0.3</v>
       </c>
       <c r="O43" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P43" s="2">
         <v>1000</v>
@@ -3886,7 +3886,7 @@
         <v>0.3</v>
       </c>
       <c r="O44" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P44" s="2">
         <v>1000</v>
@@ -3954,7 +3954,7 @@
         <v>0.3</v>
       </c>
       <c r="O45" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P45" s="2">
         <v>1000</v>
@@ -4022,7 +4022,7 @@
         <v>0.3</v>
       </c>
       <c r="O46" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P46" s="2">
         <v>1000</v>
@@ -4090,7 +4090,7 @@
         <v>0.3</v>
       </c>
       <c r="O47" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P47" s="2">
         <v>1000</v>
@@ -4158,7 +4158,7 @@
         <v>0.3</v>
       </c>
       <c r="O48" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="P48" s="2">
         <v>1000</v>

--- a/Excel/BattleUnit.xlsx
+++ b/Excel/BattleUnit.xlsx
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1166,7 +1166,7 @@
         <v>0.3</v>
       </c>
       <c r="O4" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="2">
         <v>1000</v>
@@ -1234,7 +1234,7 @@
         <v>0.3</v>
       </c>
       <c r="O5" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="2">
         <v>1000</v>
@@ -1302,7 +1302,7 @@
         <v>0.3</v>
       </c>
       <c r="O6" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="2">
         <v>1000</v>
@@ -1370,7 +1370,7 @@
         <v>0.3</v>
       </c>
       <c r="O7" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="2">
         <v>1000</v>
@@ -1438,7 +1438,7 @@
         <v>0.3</v>
       </c>
       <c r="O8" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="2">
         <v>1000</v>
@@ -1506,7 +1506,7 @@
         <v>0.3</v>
       </c>
       <c r="O9" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="2">
         <v>1000</v>
@@ -1574,7 +1574,7 @@
         <v>0.3</v>
       </c>
       <c r="O10" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="2">
         <v>1000</v>
@@ -1642,7 +1642,7 @@
         <v>0.3</v>
       </c>
       <c r="O11" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="2">
         <v>1000</v>
@@ -1710,7 +1710,7 @@
         <v>0.3</v>
       </c>
       <c r="O12" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="2">
         <v>1000</v>
@@ -1778,7 +1778,7 @@
         <v>0.3</v>
       </c>
       <c r="O13" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="2">
         <v>1000</v>
@@ -1846,7 +1846,7 @@
         <v>0.3</v>
       </c>
       <c r="O14" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P14" s="2">
         <v>1000</v>
@@ -1914,7 +1914,7 @@
         <v>0.3</v>
       </c>
       <c r="O15" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P15" s="2">
         <v>1000</v>
@@ -1982,7 +1982,7 @@
         <v>0.3</v>
       </c>
       <c r="O16" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P16" s="2">
         <v>1000</v>
@@ -2050,7 +2050,7 @@
         <v>0.3</v>
       </c>
       <c r="O17" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P17" s="2">
         <v>1000</v>
@@ -2118,7 +2118,7 @@
         <v>0.3</v>
       </c>
       <c r="O18" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P18" s="2">
         <v>1000</v>
@@ -2186,7 +2186,7 @@
         <v>0.3</v>
       </c>
       <c r="O19" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P19" s="2">
         <v>1000</v>
@@ -2254,7 +2254,7 @@
         <v>0.3</v>
       </c>
       <c r="O20" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P20" s="2">
         <v>1000</v>
@@ -2322,7 +2322,7 @@
         <v>0.3</v>
       </c>
       <c r="O21" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P21" s="2">
         <v>1000</v>
@@ -2390,7 +2390,7 @@
         <v>0.3</v>
       </c>
       <c r="O22" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P22" s="2">
         <v>1000</v>
@@ -2458,7 +2458,7 @@
         <v>0.3</v>
       </c>
       <c r="O23" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P23" s="2">
         <v>1000</v>
@@ -2526,7 +2526,7 @@
         <v>0.3</v>
       </c>
       <c r="O24" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P24" s="2">
         <v>1000</v>
@@ -2594,7 +2594,7 @@
         <v>0.3</v>
       </c>
       <c r="O25" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P25" s="2">
         <v>1000</v>
@@ -2662,7 +2662,7 @@
         <v>0.3</v>
       </c>
       <c r="O26" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P26" s="2">
         <v>1000</v>
@@ -2730,7 +2730,7 @@
         <v>0.3</v>
       </c>
       <c r="O27" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P27" s="2">
         <v>1000</v>
@@ -2798,7 +2798,7 @@
         <v>0.3</v>
       </c>
       <c r="O28" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P28" s="2">
         <v>1000</v>
@@ -2866,7 +2866,7 @@
         <v>0.3</v>
       </c>
       <c r="O29" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P29" s="2">
         <v>1000</v>
@@ -2934,7 +2934,7 @@
         <v>0.3</v>
       </c>
       <c r="O30" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P30" s="2">
         <v>1000</v>
@@ -3002,7 +3002,7 @@
         <v>0.3</v>
       </c>
       <c r="O31" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P31" s="2">
         <v>1000</v>
@@ -3070,7 +3070,7 @@
         <v>0.3</v>
       </c>
       <c r="O32" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P32" s="2">
         <v>1000</v>
@@ -3138,7 +3138,7 @@
         <v>0.3</v>
       </c>
       <c r="O33" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P33" s="2">
         <v>1000</v>
@@ -3206,7 +3206,7 @@
         <v>0.3</v>
       </c>
       <c r="O34" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P34" s="2">
         <v>1000</v>
@@ -3274,7 +3274,7 @@
         <v>0.3</v>
       </c>
       <c r="O35" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P35" s="2">
         <v>1000</v>
@@ -3342,7 +3342,7 @@
         <v>0.3</v>
       </c>
       <c r="O36" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P36" s="2">
         <v>1000</v>
@@ -3410,7 +3410,7 @@
         <v>0.3</v>
       </c>
       <c r="O37" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P37" s="2">
         <v>1000</v>
@@ -3478,7 +3478,7 @@
         <v>0.3</v>
       </c>
       <c r="O38" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P38" s="2">
         <v>1000</v>
@@ -3546,7 +3546,7 @@
         <v>0.3</v>
       </c>
       <c r="O39" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P39" s="2">
         <v>1000</v>
@@ -3614,7 +3614,7 @@
         <v>0.3</v>
       </c>
       <c r="O40" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P40" s="2">
         <v>1000</v>
@@ -3682,7 +3682,7 @@
         <v>0.3</v>
       </c>
       <c r="O41" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P41" s="2">
         <v>1000</v>
@@ -3750,7 +3750,7 @@
         <v>0.3</v>
       </c>
       <c r="O42" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P42" s="2">
         <v>1000</v>
@@ -3818,7 +3818,7 @@
         <v>0.3</v>
       </c>
       <c r="O43" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P43" s="2">
         <v>1000</v>
@@ -3886,7 +3886,7 @@
         <v>0.3</v>
       </c>
       <c r="O44" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P44" s="2">
         <v>1000</v>
@@ -3954,7 +3954,7 @@
         <v>0.3</v>
       </c>
       <c r="O45" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P45" s="2">
         <v>1000</v>
@@ -4022,7 +4022,7 @@
         <v>0.3</v>
       </c>
       <c r="O46" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P46" s="2">
         <v>1000</v>
@@ -4090,7 +4090,7 @@
         <v>0.3</v>
       </c>
       <c r="O47" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P47" s="2">
         <v>1000</v>
@@ -4158,7 +4158,7 @@
         <v>0.3</v>
       </c>
       <c r="O48" s="2">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P48" s="2">
         <v>1000</v>
@@ -4226,7 +4226,7 @@
         <v>0.3</v>
       </c>
       <c r="O49" s="3">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="P49" s="3">
         <v>1000</v>
@@ -4294,7 +4294,7 @@
         <v>0.3</v>
       </c>
       <c r="O50" s="3">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="P50" s="3">
         <v>1000</v>
@@ -4362,7 +4362,7 @@
         <v>0.3</v>
       </c>
       <c r="O51" s="3">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="P51" s="3">
         <v>1000</v>

--- a/Excel/BattleUnit.xlsx
+++ b/Excel/BattleUnit.xlsx
@@ -898,7 +898,7 @@
   <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+      <selection activeCell="O49" sqref="O49:O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1166,7 +1166,7 @@
         <v>0.3</v>
       </c>
       <c r="O4" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P4" s="2">
         <v>1000</v>
@@ -1234,7 +1234,7 @@
         <v>0.3</v>
       </c>
       <c r="O5" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P5" s="2">
         <v>1000</v>
@@ -1302,7 +1302,7 @@
         <v>0.3</v>
       </c>
       <c r="O6" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P6" s="2">
         <v>1000</v>
@@ -1370,7 +1370,7 @@
         <v>0.3</v>
       </c>
       <c r="O7" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P7" s="2">
         <v>1000</v>
@@ -1438,7 +1438,7 @@
         <v>0.3</v>
       </c>
       <c r="O8" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P8" s="2">
         <v>1000</v>
@@ -1506,7 +1506,7 @@
         <v>0.3</v>
       </c>
       <c r="O9" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P9" s="2">
         <v>1000</v>
@@ -1574,7 +1574,7 @@
         <v>0.3</v>
       </c>
       <c r="O10" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P10" s="2">
         <v>1000</v>
@@ -1642,7 +1642,7 @@
         <v>0.3</v>
       </c>
       <c r="O11" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P11" s="2">
         <v>1000</v>
@@ -1710,7 +1710,7 @@
         <v>0.3</v>
       </c>
       <c r="O12" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P12" s="2">
         <v>1000</v>
@@ -1778,7 +1778,7 @@
         <v>0.3</v>
       </c>
       <c r="O13" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P13" s="2">
         <v>1000</v>
@@ -1846,7 +1846,7 @@
         <v>0.3</v>
       </c>
       <c r="O14" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P14" s="2">
         <v>1000</v>
@@ -1914,7 +1914,7 @@
         <v>0.3</v>
       </c>
       <c r="O15" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P15" s="2">
         <v>1000</v>
@@ -1982,7 +1982,7 @@
         <v>0.3</v>
       </c>
       <c r="O16" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P16" s="2">
         <v>1000</v>
@@ -2050,7 +2050,7 @@
         <v>0.3</v>
       </c>
       <c r="O17" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P17" s="2">
         <v>1000</v>
@@ -2118,7 +2118,7 @@
         <v>0.3</v>
       </c>
       <c r="O18" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P18" s="2">
         <v>1000</v>
@@ -2186,7 +2186,7 @@
         <v>0.3</v>
       </c>
       <c r="O19" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P19" s="2">
         <v>1000</v>
@@ -2254,7 +2254,7 @@
         <v>0.3</v>
       </c>
       <c r="O20" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P20" s="2">
         <v>1000</v>
@@ -2322,7 +2322,7 @@
         <v>0.3</v>
       </c>
       <c r="O21" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P21" s="2">
         <v>1000</v>
@@ -2390,7 +2390,7 @@
         <v>0.3</v>
       </c>
       <c r="O22" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P22" s="2">
         <v>1000</v>
@@ -2458,7 +2458,7 @@
         <v>0.3</v>
       </c>
       <c r="O23" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P23" s="2">
         <v>1000</v>
@@ -2526,7 +2526,7 @@
         <v>0.3</v>
       </c>
       <c r="O24" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P24" s="2">
         <v>1000</v>
@@ -2594,7 +2594,7 @@
         <v>0.3</v>
       </c>
       <c r="O25" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P25" s="2">
         <v>1000</v>
@@ -2662,7 +2662,7 @@
         <v>0.3</v>
       </c>
       <c r="O26" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P26" s="2">
         <v>1000</v>
@@ -2730,7 +2730,7 @@
         <v>0.3</v>
       </c>
       <c r="O27" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P27" s="2">
         <v>1000</v>
@@ -2798,7 +2798,7 @@
         <v>0.3</v>
       </c>
       <c r="O28" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P28" s="2">
         <v>1000</v>
@@ -2866,7 +2866,7 @@
         <v>0.3</v>
       </c>
       <c r="O29" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P29" s="2">
         <v>1000</v>
@@ -2934,7 +2934,7 @@
         <v>0.3</v>
       </c>
       <c r="O30" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P30" s="2">
         <v>1000</v>
@@ -3002,7 +3002,7 @@
         <v>0.3</v>
       </c>
       <c r="O31" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P31" s="2">
         <v>1000</v>
@@ -3070,7 +3070,7 @@
         <v>0.3</v>
       </c>
       <c r="O32" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P32" s="2">
         <v>1000</v>
@@ -3138,7 +3138,7 @@
         <v>0.3</v>
       </c>
       <c r="O33" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P33" s="2">
         <v>1000</v>
@@ -3206,7 +3206,7 @@
         <v>0.3</v>
       </c>
       <c r="O34" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P34" s="2">
         <v>1000</v>
@@ -3274,7 +3274,7 @@
         <v>0.3</v>
       </c>
       <c r="O35" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P35" s="2">
         <v>1000</v>
@@ -3342,7 +3342,7 @@
         <v>0.3</v>
       </c>
       <c r="O36" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P36" s="2">
         <v>1000</v>
@@ -3410,7 +3410,7 @@
         <v>0.3</v>
       </c>
       <c r="O37" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P37" s="2">
         <v>1000</v>
@@ -3478,7 +3478,7 @@
         <v>0.3</v>
       </c>
       <c r="O38" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P38" s="2">
         <v>1000</v>
@@ -3546,7 +3546,7 @@
         <v>0.3</v>
       </c>
       <c r="O39" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P39" s="2">
         <v>1000</v>
@@ -3614,7 +3614,7 @@
         <v>0.3</v>
       </c>
       <c r="O40" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P40" s="2">
         <v>1000</v>
@@ -3682,7 +3682,7 @@
         <v>0.3</v>
       </c>
       <c r="O41" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P41" s="2">
         <v>1000</v>
@@ -3750,7 +3750,7 @@
         <v>0.3</v>
       </c>
       <c r="O42" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P42" s="2">
         <v>1000</v>
@@ -3818,7 +3818,7 @@
         <v>0.3</v>
       </c>
       <c r="O43" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P43" s="2">
         <v>1000</v>
@@ -3886,7 +3886,7 @@
         <v>0.3</v>
       </c>
       <c r="O44" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P44" s="2">
         <v>1000</v>
@@ -3954,7 +3954,7 @@
         <v>0.3</v>
       </c>
       <c r="O45" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P45" s="2">
         <v>1000</v>
@@ -4022,7 +4022,7 @@
         <v>0.3</v>
       </c>
       <c r="O46" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P46" s="2">
         <v>1000</v>
@@ -4090,7 +4090,7 @@
         <v>0.3</v>
       </c>
       <c r="O47" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P47" s="2">
         <v>1000</v>
@@ -4158,7 +4158,7 @@
         <v>0.3</v>
       </c>
       <c r="O48" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P48" s="2">
         <v>1000</v>
@@ -4226,7 +4226,7 @@
         <v>0.3</v>
       </c>
       <c r="O49" s="3">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P49" s="3">
         <v>1000</v>
@@ -4294,7 +4294,7 @@
         <v>0.3</v>
       </c>
       <c r="O50" s="3">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P50" s="3">
         <v>1000</v>
@@ -4362,7 +4362,7 @@
         <v>0.3</v>
       </c>
       <c r="O51" s="3">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="P51" s="3">
         <v>1000</v>
